--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N2">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O2">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P2">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q2">
-        <v>6704.047790128963</v>
+        <v>5450.81923013226</v>
       </c>
       <c r="R2">
-        <v>26816.19116051585</v>
+        <v>21803.27692052904</v>
       </c>
       <c r="S2">
-        <v>0.01292172473371766</v>
+        <v>0.007463083791042005</v>
       </c>
       <c r="T2">
-        <v>0.006909422152695632</v>
+        <v>0.00407297016369559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P3">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q3">
-        <v>4837.859616067403</v>
+        <v>3211.830301299112</v>
       </c>
       <c r="R3">
-        <v>29027.15769640442</v>
+        <v>19270.98180779467</v>
       </c>
       <c r="S3">
-        <v>0.009324738160613476</v>
+        <v>0.004397533223757513</v>
       </c>
       <c r="T3">
-        <v>0.007479096685163551</v>
+        <v>0.003599923727720269</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N4">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O4">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P4">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q4">
-        <v>3443.405506722914</v>
+        <v>2098.943253151226</v>
       </c>
       <c r="R4">
-        <v>20660.43304033748</v>
+        <v>12593.65951890735</v>
       </c>
       <c r="S4">
-        <v>0.006636995960851456</v>
+        <v>0.002873804598823542</v>
       </c>
       <c r="T4">
-        <v>0.005323338160841426</v>
+        <v>0.002352563775583419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N5">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O5">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P5">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q5">
-        <v>5699.15692848973</v>
+        <v>4652.596146356053</v>
       </c>
       <c r="R5">
-        <v>22796.62771395892</v>
+        <v>18610.38458542421</v>
       </c>
       <c r="S5">
-        <v>0.01098484667019169</v>
+        <v>0.006370182796410924</v>
       </c>
       <c r="T5">
-        <v>0.005873747080290167</v>
+        <v>0.003476520590350504</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N6">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O6">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P6">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q6">
-        <v>4958.799906608862</v>
+        <v>1618.628452725337</v>
       </c>
       <c r="R6">
-        <v>29752.79943965317</v>
+        <v>9711.770716352024</v>
       </c>
       <c r="S6">
-        <v>0.009557844664700986</v>
+        <v>0.002216173250155786</v>
       </c>
       <c r="T6">
-        <v>0.007666064517608968</v>
+        <v>0.001814211345777585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N7">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O7">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P7">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q7">
-        <v>3243.956763602943</v>
+        <v>2332.858248559439</v>
       </c>
       <c r="R7">
-        <v>19463.74058161766</v>
+        <v>13997.14949135663</v>
       </c>
       <c r="S7">
-        <v>0.006252568248257146</v>
+        <v>0.003194073376232685</v>
       </c>
       <c r="T7">
-        <v>0.005015000062610049</v>
+        <v>0.002614743300416659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N8">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O8">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P8">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q8">
-        <v>57666.54360449075</v>
+        <v>70623.50546928549</v>
       </c>
       <c r="R8">
-        <v>345999.2616269445</v>
+        <v>423741.0328157129</v>
       </c>
       <c r="S8">
-        <v>0.1111494467416113</v>
+        <v>0.09669539874313572</v>
       </c>
       <c r="T8">
-        <v>0.08914968381570688</v>
+        <v>0.07915711890843953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P9">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q9">
-        <v>41614.05933190538</v>
+        <v>41614.05933190539</v>
       </c>
       <c r="R9">
         <v>374526.5339871484</v>
       </c>
       <c r="S9">
-        <v>0.0802090672043273</v>
+        <v>0.0569766118756185</v>
       </c>
       <c r="T9">
-        <v>0.09649998074720381</v>
+        <v>0.06996358409802578</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N10">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O10">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P10">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q10">
-        <v>29619.31358749468</v>
+        <v>27194.94521102449</v>
       </c>
       <c r="R10">
-        <v>266573.8222874521</v>
+        <v>244754.5068992204</v>
       </c>
       <c r="S10">
-        <v>0.05708978052674458</v>
+        <v>0.03723443141917359</v>
       </c>
       <c r="T10">
-        <v>0.06868503666373174</v>
+        <v>0.04572146689986464</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N11">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O11">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P11">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q11">
-        <v>49022.72355657932</v>
+        <v>60281.33304662546</v>
       </c>
       <c r="R11">
-        <v>294136.3413394759</v>
+        <v>361687.9982797527</v>
       </c>
       <c r="S11">
-        <v>0.09448890570678177</v>
+        <v>0.08253523380039868</v>
       </c>
       <c r="T11">
-        <v>0.0757867566127808</v>
+        <v>0.0675652761247629</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N12">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O12">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P12">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q12">
-        <v>42654.35748555482</v>
+        <v>20971.7494852632</v>
       </c>
       <c r="R12">
-        <v>383889.2173699934</v>
+        <v>188745.7453673688</v>
       </c>
       <c r="S12">
-        <v>0.08221419109414287</v>
+        <v>0.02871383493843432</v>
       </c>
       <c r="T12">
-        <v>0.09891235659830362</v>
+        <v>0.03525872703483166</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N13">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O13">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P13">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q13">
-        <v>27903.70534572118</v>
+        <v>30225.66339485958</v>
       </c>
       <c r="R13">
-        <v>251133.3481114906</v>
+        <v>272030.9705537362</v>
       </c>
       <c r="S13">
-        <v>0.05378302941978864</v>
+        <v>0.0413839918426711</v>
       </c>
       <c r="T13">
-        <v>0.06470666577276808</v>
+        <v>0.0508168579752936</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N14">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O14">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P14">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q14">
-        <v>40128.66246415425</v>
+        <v>77416.07014384419</v>
       </c>
       <c r="R14">
-        <v>240771.9747849255</v>
+        <v>464496.4208630652</v>
       </c>
       <c r="S14">
-        <v>0.07734603727878478</v>
+        <v>0.1059955566060252</v>
       </c>
       <c r="T14">
-        <v>0.06203696887336914</v>
+        <v>0.08677044603040106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P15">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q15">
-        <v>28958.15209849469</v>
+        <v>45616.49715348623</v>
       </c>
       <c r="R15">
-        <v>260623.3688864522</v>
+        <v>410548.4743813762</v>
       </c>
       <c r="S15">
-        <v>0.05581542404349099</v>
+        <v>0.06245661911302026</v>
       </c>
       <c r="T15">
-        <v>0.06715185119748296</v>
+        <v>0.07669267757323495</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N16">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O16">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P16">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q16">
-        <v>20611.31746553909</v>
+        <v>29810.55346976918</v>
       </c>
       <c r="R16">
-        <v>185501.8571898518</v>
+        <v>268294.9812279227</v>
       </c>
       <c r="S16">
-        <v>0.03972730789316761</v>
+        <v>0.04081563688121558</v>
       </c>
       <c r="T16">
-        <v>0.04779614799736862</v>
+        <v>0.05011895494395631</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N17">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O17">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P17">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q17">
-        <v>34113.65071865203</v>
+        <v>66079.18817526806</v>
       </c>
       <c r="R17">
-        <v>204681.9043119122</v>
+        <v>396475.1290516084</v>
       </c>
       <c r="S17">
-        <v>0.06575239587308067</v>
+        <v>0.09047346781744064</v>
       </c>
       <c r="T17">
-        <v>0.05273805200161949</v>
+        <v>0.07406370047770677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N18">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O18">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P18">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q18">
-        <v>29682.06879022841</v>
+        <v>22988.81113875542</v>
       </c>
       <c r="R18">
-        <v>267138.6191120557</v>
+        <v>206899.3002487988</v>
       </c>
       <c r="S18">
-        <v>0.05721073811546105</v>
+        <v>0.03147552992338153</v>
       </c>
       <c r="T18">
-        <v>0.06883056142033603</v>
+        <v>0.03864990936336764</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N19">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O19">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P19">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q19">
-        <v>19417.46987642351</v>
+        <v>33132.76595337412</v>
       </c>
       <c r="R19">
-        <v>174757.2288878116</v>
+        <v>298194.893580367</v>
       </c>
       <c r="S19">
-        <v>0.03742622496483913</v>
+        <v>0.04536430178643346</v>
       </c>
       <c r="T19">
-        <v>0.04502770215924724</v>
+        <v>0.05570442043854693</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N20">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O20">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P20">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q20">
-        <v>4127.982890375699</v>
+        <v>3297.99595740834</v>
       </c>
       <c r="R20">
-        <v>16511.9315615028</v>
+        <v>13191.98382963336</v>
       </c>
       <c r="S20">
-        <v>0.007956485437569485</v>
+        <v>0.004515508427906353</v>
       </c>
       <c r="T20">
-        <v>0.004254441096124962</v>
+        <v>0.002464333995935306</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P21">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q21">
-        <v>2978.887136003191</v>
+        <v>1943.304832236944</v>
       </c>
       <c r="R21">
-        <v>17873.32281601915</v>
+        <v>11659.82899342166</v>
       </c>
       <c r="S21">
-        <v>0.005741659485321977</v>
+        <v>0.002660709552492211</v>
       </c>
       <c r="T21">
-        <v>0.004605215254771751</v>
+        <v>0.002178119178006887</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N22">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O22">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P22">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q22">
-        <v>2120.259201807422</v>
+        <v>1269.957059932492</v>
       </c>
       <c r="R22">
-        <v>12721.55521084454</v>
+        <v>7619.742359594949</v>
       </c>
       <c r="S22">
-        <v>0.004086696071920514</v>
+        <v>0.001738783758761996</v>
       </c>
       <c r="T22">
-        <v>0.003277818048969297</v>
+        <v>0.001423409123261488</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N23">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O23">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P23">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q23">
-        <v>3509.226519090665</v>
+        <v>2815.034334162567</v>
       </c>
       <c r="R23">
-        <v>14036.90607636266</v>
+        <v>11260.13733665027</v>
       </c>
       <c r="S23">
-        <v>0.006763862747923443</v>
+        <v>0.003854253135818195</v>
       </c>
       <c r="T23">
-        <v>0.003616729505647751</v>
+        <v>0.002103454612738022</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N24">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O24">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P24">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q24">
-        <v>3053.355496871275</v>
+        <v>979.3445477194354</v>
       </c>
       <c r="R24">
-        <v>18320.13298122765</v>
+        <v>5876.067286316612</v>
       </c>
       <c r="S24">
-        <v>0.005885193614348528</v>
+        <v>0.001340886591785385</v>
       </c>
       <c r="T24">
-        <v>0.004720339734421449</v>
+        <v>0.001097681179956071</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N25">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O25">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P25">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q25">
-        <v>1997.449665706198</v>
+        <v>1411.486374456239</v>
       </c>
       <c r="R25">
-        <v>11984.69799423719</v>
+        <v>8468.918246737432</v>
       </c>
       <c r="S25">
-        <v>0.003849986688298257</v>
+        <v>0.001932561077103524</v>
       </c>
       <c r="T25">
-        <v>0.003087960453409761</v>
+        <v>0.00158203977610636</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N26">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O26">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P26">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q26">
-        <v>3757.640912505828</v>
+        <v>8768.576385662336</v>
       </c>
       <c r="R26">
-        <v>22545.84547503497</v>
+        <v>52611.45831397402</v>
       </c>
       <c r="S26">
-        <v>0.007242669360300298</v>
+        <v>0.01200564860646872</v>
       </c>
       <c r="T26">
-        <v>0.005809130880817548</v>
+        <v>0.00982810523218044</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P27">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q27">
-        <v>2711.636281749255</v>
+        <v>5166.779184134269</v>
       </c>
       <c r="R27">
-        <v>24404.7265357433</v>
+        <v>46501.01265720842</v>
       </c>
       <c r="S27">
-        <v>0.005226546514527682</v>
+        <v>0.007074185430300917</v>
       </c>
       <c r="T27">
-        <v>0.006288087564233337</v>
+        <v>0.008686640903786003</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N28">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O28">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P28">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q28">
-        <v>1930.040151184689</v>
+        <v>3376.509744202349</v>
       </c>
       <c r="R28">
-        <v>17370.3613606622</v>
+        <v>30388.58769782114</v>
       </c>
       <c r="S28">
-        <v>0.003720058140896936</v>
+        <v>0.004623006942323512</v>
       </c>
       <c r="T28">
-        <v>0.004475622912563504</v>
+        <v>0.005676752694616014</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N29">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O29">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P29">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q29">
-        <v>3194.396268000366</v>
+        <v>7484.497830241085</v>
       </c>
       <c r="R29">
-        <v>19166.3776080022</v>
+        <v>44906.98698144651</v>
       </c>
       <c r="S29">
-        <v>0.006157042813192966</v>
+        <v>0.01024753015696797</v>
       </c>
       <c r="T29">
-        <v>0.004938381936456648</v>
+        <v>0.008388868278083579</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N30">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O30">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P30">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q30">
-        <v>2779.423713750868</v>
+        <v>2603.841116078285</v>
       </c>
       <c r="R30">
-        <v>25014.81342375781</v>
+        <v>23434.57004470456</v>
       </c>
       <c r="S30">
-        <v>0.005357203479416888</v>
+        <v>0.003565094274348381</v>
       </c>
       <c r="T30">
-        <v>0.006445281694968924</v>
+        <v>0.004377704550513967</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N31">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O31">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P31">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q31">
-        <v>1818.248472402362</v>
+        <v>3752.802080893729</v>
       </c>
       <c r="R31">
-        <v>16364.23625162126</v>
+        <v>33775.21872804355</v>
       </c>
       <c r="S31">
-        <v>0.003504585139216913</v>
+        <v>0.005138214128636057</v>
       </c>
       <c r="T31">
-        <v>0.004216386130010039</v>
+        <v>0.006309393705039269</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>164.5772705</v>
+        <v>201.5557555</v>
       </c>
       <c r="N32">
-        <v>329.154541</v>
+        <v>403.111511</v>
       </c>
       <c r="O32">
-        <v>0.2320765473082729</v>
+        <v>0.2814680640969941</v>
       </c>
       <c r="P32">
-        <v>0.1805598029509348</v>
+        <v>0.2271476997658372</v>
       </c>
       <c r="Q32">
-        <v>8021.050818076026</v>
+        <v>40019.11629400354</v>
       </c>
       <c r="R32">
-        <v>48126.30490845616</v>
+        <v>240114.6977640212</v>
       </c>
       <c r="S32">
-        <v>0.01546018375628934</v>
+        <v>0.05479286792241611</v>
       </c>
       <c r="T32">
-        <v>0.01240015613222064</v>
+        <v>0.0448547254351853</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>118.764328</v>
       </c>
       <c r="N33">
-        <v>356.2929839999999</v>
+        <v>356.292984</v>
       </c>
       <c r="O33">
-        <v>0.1674740084210306</v>
+        <v>0.1658517039268592</v>
       </c>
       <c r="P33">
-        <v>0.1954467673099505</v>
+        <v>0.2007661144618275</v>
       </c>
       <c r="Q33">
-        <v>5788.251970448431</v>
+        <v>23580.78756927971</v>
       </c>
       <c r="R33">
-        <v>52094.26773403588</v>
+        <v>212227.0881235173</v>
       </c>
       <c r="S33">
-        <v>0.01115657301274917</v>
+        <v>0.03228604473166981</v>
       </c>
       <c r="T33">
-        <v>0.01342253586109508</v>
+        <v>0.03964516898105365</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>84.53195699999999</v>
+        <v>77.61293766666667</v>
       </c>
       <c r="N34">
-        <v>253.595871</v>
+        <v>232.838813</v>
       </c>
       <c r="O34">
-        <v>0.1192016653221344</v>
+        <v>0.1083847159795808</v>
       </c>
       <c r="P34">
-        <v>0.1391116171686985</v>
+        <v>0.1312014153551619</v>
       </c>
       <c r="Q34">
-        <v>4119.858840704357</v>
+        <v>15410.13388923831</v>
       </c>
       <c r="R34">
-        <v>37078.72956633922</v>
+        <v>138691.2050031448</v>
       </c>
       <c r="S34">
-        <v>0.007940826728553316</v>
+        <v>0.02109905237928262</v>
       </c>
       <c r="T34">
-        <v>0.009553653385223947</v>
+        <v>0.02590826791788006</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>139.9082645</v>
+        <v>172.0397415</v>
       </c>
       <c r="N35">
-        <v>279.816529</v>
+        <v>344.079483</v>
       </c>
       <c r="O35">
-        <v>0.1972898618770847</v>
+        <v>0.2402496166265631</v>
       </c>
       <c r="P35">
-        <v>0.1534951247677137</v>
+        <v>0.1938839774289365</v>
       </c>
       <c r="Q35">
-        <v>6818.750219966263</v>
+        <v>34158.67934507484</v>
       </c>
       <c r="R35">
-        <v>40912.50131979758</v>
+        <v>204952.0760704491</v>
       </c>
       <c r="S35">
-        <v>0.01314280806591414</v>
+        <v>0.04676894891952667</v>
       </c>
       <c r="T35">
-        <v>0.01054145763091886</v>
+        <v>0.03828615734529472</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>121.733284</v>
+        <v>59.85226566666666</v>
       </c>
       <c r="N36">
-        <v>365.199852</v>
+        <v>179.556797</v>
       </c>
       <c r="O36">
-        <v>0.1716606440086599</v>
+        <v>0.08358233833226186</v>
       </c>
       <c r="P36">
-        <v>0.2003326860218846</v>
+        <v>0.1011777443782085</v>
       </c>
       <c r="Q36">
-        <v>5932.950851893495</v>
+        <v>11883.73298610135</v>
       </c>
       <c r="R36">
-        <v>53396.55766704146</v>
+        <v>106953.5968749121</v>
       </c>
       <c r="S36">
-        <v>0.01143547304058951</v>
+        <v>0.01627081935415646</v>
       </c>
       <c r="T36">
-        <v>0.01375808205624564</v>
+        <v>0.01997951090376157</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.63570166666668</v>
+        <v>86.26244733333333</v>
       </c>
       <c r="N37">
-        <v>238.907105</v>
+        <v>258.787342</v>
       </c>
       <c r="O37">
-        <v>0.1122972730628175</v>
+        <v>0.1204635610377409</v>
       </c>
       <c r="P37">
-        <v>0.1310540017808179</v>
+        <v>0.1458230486100285</v>
       </c>
       <c r="Q37">
-        <v>3881.228605024624</v>
+        <v>17127.50351918391</v>
       </c>
       <c r="R37">
-        <v>34931.05744522162</v>
+        <v>154147.5316726551</v>
       </c>
       <c r="S37">
-        <v>0.007480878602417363</v>
+        <v>0.02345041882666411</v>
       </c>
       <c r="T37">
-        <v>0.009000287202772727</v>
+        <v>0.02879559341462564</v>
       </c>
     </row>
   </sheetData>
